--- a/controlCommand.xlsx
+++ b/controlCommand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimis\Documents\MATLAB\CUonOrbit\CUonOrbit_ADCSapp-NimishDhawan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C513332-368D-4F72-81C4-049F82DA76C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2162DB9F-60D2-4FB0-8B75-EF668F787448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3105" windowWidth="16515" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commands" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Copy first two rows for detumble and LEOP</t>
+  </si>
+  <si>
+    <t>controlMode</t>
   </si>
 </sst>
 </file>
@@ -414,22 +417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694C082E-BA2A-44C1-A93A-2F9CB2B05B5C}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" customWidth="1"/>
+    <col min="3" max="3" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" customWidth="1"/>
+    <col min="5" max="5" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -440,13 +444,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45829</v>
       </c>
@@ -458,13 +465,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f>A2+TIME(0,0,6000)</f>
         <v>45829.069444444445</v>
@@ -477,13 +487,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <f>A3+TIME(0,0,6000)</f>
         <v>45829.138888888891</v>
@@ -496,13 +509,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <f>A4+TIME(0,0,6000)</f>
         <v>45829.208333333336</v>
@@ -515,13 +531,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A11" si="1">A5+TIME(0,0,6000)</f>
         <v>45829.277777777781</v>
@@ -534,13 +553,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>45829.347222222226</v>
@@ -553,13 +575,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>45829.416666666672</v>
@@ -572,13 +597,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>45829.486111111117</v>
@@ -591,13 +619,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>45829.555555555562</v>
@@ -610,13 +641,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>45829.625000000007</v>
@@ -629,13 +663,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <f t="shared" ref="A12:A17" si="2">A11+TIME(0,0,6000)</f>
         <v>45829.694444444453</v>
@@ -648,13 +685,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>45829.763888888898</v>
@@ -667,13 +707,16 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>45829.833333333343</v>
@@ -686,13 +729,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>45829.902777777788</v>
@@ -705,13 +751,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>45829.972222222234</v>
@@ -724,13 +773,16 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>45830.041666666679</v>
@@ -743,25 +795,28 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
@@ -777,16 +832,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" customWidth="1"/>
+    <col min="3" max="3" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -803,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45829</v>
       </c>
@@ -821,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>45829.034722222219</v>
       </c>
@@ -839,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>45829.104166666664</v>
       </c>
@@ -857,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45829.146909722222</v>
       </c>
@@ -875,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45829.440972222219</v>
       </c>
@@ -893,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>45829.480104166665</v>
       </c>
@@ -911,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>45829.534722222219</v>
       </c>
@@ -929,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>45829.561539351853</v>
       </c>
@@ -947,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>45829.607638888891</v>
       </c>
@@ -965,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>45829.622997685183</v>
       </c>
@@ -983,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>45829.673611111109</v>
       </c>
@@ -1001,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>45829.687951388885</v>
       </c>
@@ -1019,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>45829.739583333336</v>
       </c>
@@ -1037,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>45829.754143518519</v>
       </c>
@@ -1055,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>45829.805555555555</v>
       </c>
@@ -1073,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>45829.818287037036</v>
       </c>
@@ -1091,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>45829.916666666664</v>
       </c>
@@ -1109,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>45829.929548611108</v>
       </c>
@@ -1127,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>45829.94027777778</v>
       </c>
@@ -1145,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>45829.995740740742</v>
       </c>
@@ -1163,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
@@ -1179,12 +1234,12 @@
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45829</v>
       </c>
@@ -1222,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f>A2 + TIME(0, 30, 0)</f>
         <v>45829.020833333336</v>
@@ -1241,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>45829.133333333331</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45829.146909722222</v>
       </c>
@@ -1277,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45829.46875</v>
       </c>
@@ -1295,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>45829.480104166665</v>
       </c>
@@ -1313,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>45829.534722222219</v>
       </c>
@@ -1331,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>45829.547650462962</v>
       </c>
@@ -1349,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>45829.607638888891</v>
       </c>
@@ -1367,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>45829.622997685183</v>
       </c>
@@ -1385,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>45829.673611111109</v>
       </c>
@@ -1403,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>45829.687951388885</v>
       </c>
@@ -1421,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>45829.739583333336</v>
       </c>
@@ -1439,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>45829.754143518519</v>
       </c>
@@ -1457,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>45829.805555555555</v>
       </c>
@@ -1475,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>45829.818287037036</v>
       </c>
@@ -1493,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>45829.916666666664</v>
       </c>
@@ -1511,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>45829.929548611108</v>
       </c>
@@ -1529,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>45829.94027777778</v>
       </c>
@@ -1547,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>45829.995740740742</v>
       </c>
@@ -1578,15 +1633,15 @@
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3046875" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1602,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1610,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1618,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1626,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1634,7 +1689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1642,7 +1697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
